--- a/biology/Zoologie/Diaphorodoris/Diaphorodoris.xlsx
+++ b/biology/Zoologie/Diaphorodoris/Diaphorodoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaphorodoris est un genre de nudibranches de la famille des Calycidorididae. Certaines bases de données taxinomiques comme ITIS placent le genre dans la famille Onchidorididae[2]. Les espèces sont présentes dans des océans différents.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaphorodoris est un genre de nudibranches de la famille des Calycidorididae. Certaines bases de données taxinomiques comme ITIS placent le genre dans la famille Onchidorididae. Les espèces sont présentes dans des océans différents.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 mars 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 mars 2016) :
 Diaphorodoris alba (Portmann &amp; Sandmeier, 1960)
 Diaphorodoris lirulatocauda (Millen, 1985)
 Diaphorodoris luteocincta (M. Sars, 1870)
